--- a/Result/checkyaya.xlsx
+++ b/Result/checkyaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS91"/>
+  <dimension ref="A1:AS85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-788741</v>
+        <v>429127</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-76491</v>
+        <v>1081951</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-565215</v>
+        <v>1516376</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>747240</v>
+        <v>1807644</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-381618</v>
+        <v>1658903</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>725583</v>
+        <v>2002239</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>470628</v>
+        <v>864559</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>1540060</v>
+        <v>1096222</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>1356008</v>
+        <v>-660990</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>589776</v>
+        <v>-250690</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>500461</v>
+        <v>465898</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-79352</v>
+        <v>479719</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>137073</v>
+        <v>289161</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>149510</v>
+        <v>229602</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>271599</v>
+        <v>307029</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>144729</v>
+        <v>160907</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>73218</v>
+        <v>88549</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>22965</v>
+        <v>34325</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>7359</v>
+        <v>16910</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>6874</v>
+        <v>13562</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>12465</v>
+        <v>11628</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>8819</v>
+        <v>5084</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>8457</v>
+        <v>8316</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-1105</v>
+        <v>3852</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>9384536590</v>
+        <v>21787529830</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>21219761700</v>
+        <v>26738103090</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>9241615885</v>
+        <v>22580933155</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>7326764295</v>
+        <v>11065383145</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-1963486675</v>
+        <v>10263544675</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>9571591500</v>
+        <v>9720420530</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>5076228945</v>
+        <v>-604932150</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>7481828065</v>
+        <v>6317121315</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>3767725770</v>
+        <v>3751940340</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>-1337610095</v>
+        <v>-2478178350</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>4745203285</v>
+        <v>-7118074393</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-3618896740</v>
+        <v>-436957368</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>436</v>
+        <v>1105</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7574,12 +7574,12 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U39" t="n">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>455</v>
+        <v>1316</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>-172</v>
+        <v>1173</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>-232</v>
+        <v>724</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-579</v>
+        <v>3193</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-468</v>
+        <v>3276</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>901</v>
+        <v>2804</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>1440</v>
+        <v>4368</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -8869,7 +8869,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>1813</v>
+        <v>4677</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>55</v>
+        <v>3065</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -9231,7 +9231,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>2332</v>
+        <v>3625</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>1931</v>
+        <v>2066</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>5658622</v>
+        <v>10413067</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>4578003</v>
+        <v>8509880</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>1315781</v>
+        <v>6292562</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>503638</v>
+        <v>5451958</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-871713</v>
+        <v>5375299</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>4006740</v>
+        <v>5674756</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>4250807</v>
+        <v>4754664</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>4803590</v>
+        <v>6286074</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>970041</v>
+        <v>1735262</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>697513</v>
+        <v>521589</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>1443422</v>
+        <v>1542983</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>697975</v>
+        <v>737294</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>406904</v>
+        <v>1293709</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>1016348</v>
+        <v>1518124</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>1042733</v>
+        <v>1682450</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>761697</v>
+        <v>951614</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>461368</v>
+        <v>549230</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>608944</v>
+        <v>672364</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>125108</v>
+        <v>190345</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>40408</v>
+        <v>81899</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>30773</v>
+        <v>58548</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>64809</v>
+        <v>63936</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>47454</v>
+        <v>46575</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>32647</v>
+        <v>54655</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>2252262617</v>
+        <v>4320686287</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         </is>
       </c>
       <c r="U75" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V75" t="n">
         <v>27</v>
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>1542016326</v>
+        <v>3513523074</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP75" t="n">
@@ -14345,7 +14345,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14354,26 +14354,26 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7.18</v>
+        <v>4.09</v>
       </c>
       <c r="D76" t="n">
-        <v>21872.193</v>
+        <v>12665.256</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="H76" t="n">
-        <v>40.95</v>
+        <v>38.2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>1.33</v>
+        <v>7.95</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -14400,37 +14400,37 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>65</v>
       </c>
       <c r="V76" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="W76" t="n">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="X76" t="b">
         <v>0</v>
@@ -14447,11 +14447,11 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>1542016326</v>
+        <v>2663753944</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="AR76" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS76" t="inlineStr">
@@ -14534,7 +14534,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -14543,26 +14543,26 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.09</v>
+        <v>1.37</v>
       </c>
       <c r="D77" t="n">
-        <v>12665.256</v>
+        <v>4318.195</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="H77" t="n">
-        <v>38.2</v>
+        <v>36.7</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>7.95</v>
+        <v>11.57</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -14589,37 +14589,37 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V77" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="W77" t="n">
-        <v>-18</v>
+        <v>73</v>
       </c>
       <c r="X77" t="b">
         <v>0</v>
@@ -14636,11 +14636,11 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>480480857</v>
+        <v>2255946467</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP77" t="n">
@@ -14723,7 +14723,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -14732,26 +14732,26 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.09</v>
+        <v>-2.88</v>
       </c>
       <c r="D78" t="n">
-        <v>12665.256</v>
+        <v>4454.713</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.75</v>
+        <v>1.02</v>
       </c>
       <c r="H78" t="n">
-        <v>38.2</v>
+        <v>36.2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>7.95</v>
+        <v>12.77</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -14778,37 +14778,37 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-1.62</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>65</v>
       </c>
       <c r="V78" t="n">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="W78" t="n">
-        <v>-18</v>
+        <v>81</v>
       </c>
       <c r="X78" t="b">
         <v>0</v>
@@ -14825,11 +14825,11 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>480480857</v>
+        <v>2151960753</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -14921,26 +14921,26 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.37</v>
+        <v>3.23</v>
       </c>
       <c r="D79" t="n">
-        <v>4318.195</v>
+        <v>10141.773</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.95</v>
+        <v>1.26</v>
       </c>
       <c r="H79" t="n">
-        <v>36.7</v>
+        <v>37.25</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>11.57</v>
+        <v>10.24</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -14967,37 +14967,37 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V79" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="W79" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="X79" t="b">
         <v>0</v>
@@ -15014,11 +15014,11 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>375654501</v>
+        <v>2379953446</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
       </c>
       <c r="AO79" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP79" t="n">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="AR79" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS79" t="inlineStr">
@@ -15101,7 +15101,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -15110,26 +15110,26 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.37</v>
+        <v>-9.07</v>
       </c>
       <c r="D80" t="n">
-        <v>4318.195</v>
+        <v>10124.099</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.95</v>
+        <v>1.95</v>
       </c>
       <c r="H80" t="n">
-        <v>36.7</v>
+        <v>36.1</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>11.57</v>
+        <v>13.01</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -15156,40 +15156,40 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="U80" t="n">
         <v>65</v>
       </c>
       <c r="V80" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="W80" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="X80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
@@ -15203,11 +15203,11 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>375654501</v>
+        <v>1946892678</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
       </c>
       <c r="AR80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS80" t="inlineStr">
@@ -15290,7 +15290,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -15299,26 +15299,26 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-2.88</v>
+        <v>3.01</v>
       </c>
       <c r="D81" t="n">
-        <v>4454.713</v>
+        <v>46298.965</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>28.55</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.02</v>
+        <v>1.83</v>
       </c>
       <c r="H81" t="n">
-        <v>36.2</v>
+        <v>39.7</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>12.77</v>
+        <v>4.34</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -15345,40 +15345,40 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>-1.62</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V81" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="W81" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
@@ -15392,11 +15392,11 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>-161349283</v>
+        <v>2275349793</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP81" t="n">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="AR81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS81" t="inlineStr">
@@ -15479,7 +15479,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15488,26 +15488,26 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-2.88</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>4454.713</v>
+        <v>6192.331</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.02</v>
+        <v>1.45</v>
       </c>
       <c r="H82" t="n">
-        <v>36.2</v>
+        <v>35</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>12.77</v>
+        <v>15.66</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -15534,40 +15534,40 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-2.11</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>-1.62</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="U82" t="n">
         <v>65</v>
       </c>
       <c r="V82" t="n">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="W82" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="X82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
@@ -15581,11 +15581,11 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>-161349283</v>
+        <v>359850941</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="AR82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS82" t="inlineStr">
@@ -15668,7 +15668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15677,26 +15677,26 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3.23</v>
+        <v>2.05</v>
       </c>
       <c r="D83" t="n">
-        <v>10141.773</v>
+        <v>1928.444</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.26</v>
+        <v>0.74</v>
       </c>
       <c r="H83" t="n">
-        <v>37.25</v>
+        <v>31.85</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>10.24</v>
+        <v>23.25</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -15728,53 +15728,45 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-3.04</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V83" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="W83" t="n">
-        <v>81</v>
+        <v>-5</v>
       </c>
       <c r="X83" t="b">
         <v>0</v>
       </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>1862169179</v>
+        <v>63256980</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15832,7 +15824,7 @@
       </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP83" t="n">
@@ -15857,7 +15849,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15866,26 +15858,26 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.23</v>
+        <v>1.59</v>
       </c>
       <c r="D84" t="n">
-        <v>10141.773</v>
+        <v>1605.052</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.26</v>
+        <v>0.83</v>
       </c>
       <c r="H84" t="n">
-        <v>37.25</v>
+        <v>31.2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>10.24</v>
+        <v>24.82</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -15899,7 +15891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -15917,53 +15909,45 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-2.84</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="U84" t="n">
         <v>65</v>
       </c>
       <c r="V84" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="W84" t="n">
-        <v>81</v>
+        <v>-14</v>
       </c>
       <c r="X84" t="b">
         <v>0</v>
       </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>1862169179</v>
+        <v>98402302</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16046,7 +16030,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -16055,26 +16039,26 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-9.07</v>
+        <v>1.13</v>
       </c>
       <c r="D85" t="n">
-        <v>10124.099</v>
+        <v>2457.542</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.95</v>
+        <v>0.95</v>
       </c>
       <c r="H85" t="n">
-        <v>36.1</v>
+        <v>30.7</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>13.01</v>
+        <v>26.02</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -16088,7 +16072,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -16101,58 +16085,50 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-3.06</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-3.23</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="V85" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="W85" t="n">
-        <v>78</v>
+        <v>-21</v>
       </c>
       <c r="X85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>1692769169</v>
+        <v>161969800</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16210,7 +16186,7 @@
       </c>
       <c r="AO85" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP85" t="n">
@@ -16223,1120 +16199,10 @@
       </c>
       <c r="AR85" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS85" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2025-05-05</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2365</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>-9.07</v>
-      </c>
-      <c r="D86" t="n">
-        <v>10124.099</v>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H86" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>21040</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>-0.99</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>-2.24</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
-        <v>65</v>
-      </c>
-      <c r="V86" t="n">
-        <v>90</v>
-      </c>
-      <c r="W86" t="n">
-        <v>78</v>
-      </c>
-      <c r="X86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="AA86" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AB86" t="n">
-        <v>1692769169</v>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>昆盈</t>
-        </is>
-      </c>
-      <c r="AD86" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AE86" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF86" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="AG86" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>74.11</v>
-      </c>
-      <c r="AI86" t="inlineStr">
-        <is>
-          <t>39.22%</t>
-        </is>
-      </c>
-      <c r="AJ86" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="AK86" t="n">
-        <v>57.65</v>
-      </c>
-      <c r="AL86" t="inlineStr">
-        <is>
-          <t>9193</t>
-        </is>
-      </c>
-      <c r="AM86" t="inlineStr">
-        <is>
-          <t>電子產品99.80%、投資0.20% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN86" t="inlineStr">
-        <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AO86" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="AP86" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AQ86" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR86" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS86" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2365</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D87" t="n">
-        <v>46298.965</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>28.55</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H87" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>21040</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>-1.33</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>-2.55</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
-        <v>65</v>
-      </c>
-      <c r="V87" t="n">
-        <v>90</v>
-      </c>
-      <c r="W87" t="n">
-        <v>78</v>
-      </c>
-      <c r="X87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="AA87" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AB87" t="n">
-        <v>2132856031</v>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>昆盈</t>
-        </is>
-      </c>
-      <c r="AD87" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AE87" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF87" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="AG87" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>74.11</v>
-      </c>
-      <c r="AI87" t="inlineStr">
-        <is>
-          <t>39.22%</t>
-        </is>
-      </c>
-      <c r="AJ87" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="AK87" t="n">
-        <v>57.65</v>
-      </c>
-      <c r="AL87" t="inlineStr">
-        <is>
-          <t>9193</t>
-        </is>
-      </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>電子產品99.80%、投資0.20% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN87" t="inlineStr">
-        <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="AP87" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AQ87" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS87" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2365</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D88" t="n">
-        <v>6192.331</v>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H88" t="n">
-        <v>35</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>21040</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>-2.11</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>-2.85</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
-        <v>65</v>
-      </c>
-      <c r="V88" t="n">
-        <v>28</v>
-      </c>
-      <c r="W88" t="n">
-        <v>18</v>
-      </c>
-      <c r="X88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="AA88" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AB88" t="n">
-        <v>321103908</v>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>昆盈</t>
-        </is>
-      </c>
-      <c r="AD88" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AE88" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF88" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="AG88" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>74.11</v>
-      </c>
-      <c r="AI88" t="inlineStr">
-        <is>
-          <t>39.22%</t>
-        </is>
-      </c>
-      <c r="AJ88" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="AK88" t="n">
-        <v>57.65</v>
-      </c>
-      <c r="AL88" t="inlineStr">
-        <is>
-          <t>9193</t>
-        </is>
-      </c>
-      <c r="AM88" t="inlineStr">
-        <is>
-          <t>電子產品99.80%、投資0.20% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN88" t="inlineStr">
-        <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AO88" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="AP88" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AQ88" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR88" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS88" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2025-04-28</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2365</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1928.444</v>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H89" t="n">
-        <v>31.85</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>21040</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>-2.59</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>-3.04</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
-        <v>65</v>
-      </c>
-      <c r="V89" t="n">
-        <v>3</v>
-      </c>
-      <c r="W89" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="AB89" t="n">
-        <v>187522797</v>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>昆盈</t>
-        </is>
-      </c>
-      <c r="AD89" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AE89" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF89" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="AG89" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>74.11</v>
-      </c>
-      <c r="AI89" t="inlineStr">
-        <is>
-          <t>39.22%</t>
-        </is>
-      </c>
-      <c r="AJ89" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="AK89" t="n">
-        <v>57.65</v>
-      </c>
-      <c r="AL89" t="inlineStr">
-        <is>
-          <t>9193</t>
-        </is>
-      </c>
-      <c r="AM89" t="inlineStr">
-        <is>
-          <t>電子產品99.80%、投資0.20% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN89" t="inlineStr">
-        <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AO89" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="AP89" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AQ89" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR89" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS89" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2365</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1605.052</v>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H90" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>21040</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>-2.84</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>-3.15</t>
-        </is>
-      </c>
-      <c r="U90" t="n">
-        <v>65</v>
-      </c>
-      <c r="V90" t="n">
-        <v>7</v>
-      </c>
-      <c r="W90" t="n">
-        <v>-14</v>
-      </c>
-      <c r="X90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="AB90" t="n">
-        <v>180454005</v>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>昆盈</t>
-        </is>
-      </c>
-      <c r="AD90" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AE90" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF90" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="AG90" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>74.11</v>
-      </c>
-      <c r="AI90" t="inlineStr">
-        <is>
-          <t>39.22%</t>
-        </is>
-      </c>
-      <c r="AJ90" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="AK90" t="n">
-        <v>57.65</v>
-      </c>
-      <c r="AL90" t="inlineStr">
-        <is>
-          <t>9193</t>
-        </is>
-      </c>
-      <c r="AM90" t="inlineStr">
-        <is>
-          <t>電子產品99.80%、投資0.20% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN90" t="inlineStr">
-        <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AO90" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="AP90" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AQ90" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR90" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS90" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2365</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2457.542</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H91" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>21040</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>-3.06</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>-3.23</t>
-        </is>
-      </c>
-      <c r="U91" t="n">
-        <v>65</v>
-      </c>
-      <c r="V91" t="n">
-        <v>17</v>
-      </c>
-      <c r="W91" t="n">
-        <v>-21</v>
-      </c>
-      <c r="X91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="AB91" t="n">
-        <v>196680359</v>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>昆盈</t>
-        </is>
-      </c>
-      <c r="AD91" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AE91" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF91" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="AG91" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>74.11</v>
-      </c>
-      <c r="AI91" t="inlineStr">
-        <is>
-          <t>39.22%</t>
-        </is>
-      </c>
-      <c r="AJ91" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="AK91" t="n">
-        <v>57.65</v>
-      </c>
-      <c r="AL91" t="inlineStr">
-        <is>
-          <t>9193</t>
-        </is>
-      </c>
-      <c r="AM91" t="inlineStr">
-        <is>
-          <t>電子產品99.80%、投資0.20% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN91" t="inlineStr">
-        <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AO91" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="AP91" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AQ91" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR91" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AS91" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>

--- a/Result/checkyaya.xlsx
+++ b/Result/checkyaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS85"/>
+  <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,85 +576,95 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -771,79 +781,85 @@
       <c r="AB2" t="n">
         <v>1278.684871264222</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AC2" t="n">
+        <v>1421.717623158692</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -960,79 +976,85 @@
       <c r="AB3" t="n">
         <v>1065.283060974875</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AC3" t="n">
+        <v>1421.456998997859</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -1149,79 +1171,85 @@
       <c r="AB4" t="n">
         <v>921.379943345849</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC4" t="n">
+        <v>1275.898898816047</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -1338,79 +1366,85 @@
       <c r="AB5" t="n">
         <v>1175.248484364051</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" t="n">
+        <v>1225.009387719131</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -1527,79 +1561,85 @@
       <c r="AB6" t="n">
         <v>1177.743605374277</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AC6" t="n">
+        <v>1304.645928978434</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -1716,79 +1756,85 @@
       <c r="AB7" t="n">
         <v>1462.239036546351</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>1334.592821799968</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -1905,79 +1951,85 @@
       <c r="AB8" t="n">
         <v>1174.03066399477</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC8" t="n">
+        <v>1002.510847821608</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -2094,79 +2146,85 @@
       <c r="AB9" t="n">
         <v>1325.311284189492</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AC9" t="n">
+        <v>1273.385644649727</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -2283,79 +2341,85 @@
       <c r="AB10" t="n">
         <v>668.2843706088</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v>-532.8536384411765</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -2472,79 +2536,85 @@
       <c r="AB11" t="n">
         <v>-421.5210552273753</v>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" t="n">
+        <v>1366.206792546428</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -2653,79 +2723,85 @@
       <c r="AB12" t="n">
         <v>621.4869266525242</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC12" t="n">
+        <v>720.1937239382193</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP12" t="n">
+      <c r="AR12" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -2834,79 +2910,85 @@
       <c r="AB13" t="n">
         <v>941.1227337600552</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AC13" t="n">
+        <v>-1556.562880194694</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>千附精密</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>7.21</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>24.2</v>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>35.42%</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>22.80%</t>
         </is>
       </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>8550</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP13" t="n">
+      <c r="AR13" t="n">
         <v>35.24</v>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
@@ -3015,79 +3097,85 @@
       <c r="AB14" t="n">
         <v>532.5870820814189</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC14" t="n">
+        <v>540.0185182009965</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP14" t="n">
+      <c r="AR14" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -3196,79 +3284,85 @@
       <c r="AB15" t="n">
         <v>514.5784682631017</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC15" t="n">
+        <v>524.3538881328144</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP15" t="n">
+      <c r="AR15" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -3377,79 +3471,85 @@
       <c r="AB16" t="n">
         <v>539.4450852496479</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" t="n">
+        <v>550.082721052025</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP16" t="n">
+      <c r="AR16" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -3558,79 +3658,85 @@
       <c r="AB17" t="n">
         <v>487.1755330473812</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" t="n">
+        <v>492.7565321738516</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP17" t="n">
+      <c r="AR17" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -3739,79 +3845,85 @@
       <c r="AB18" t="n">
         <v>553.4166603925112</v>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AC18" t="n">
+        <v>560.6968878101608</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AI18" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP18" t="n">
+      <c r="AR18" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -3920,79 +4032,85 @@
       <c r="AB19" t="n">
         <v>402.9702222249182</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AC19" t="n">
+        <v>406.2117674317178</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP19" t="n">
+      <c r="AR19" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -4101,79 +4219,85 @@
       <c r="AB20" t="n">
         <v>294.4910864525444</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC20" t="n">
+        <v>293.8128656134717</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AJ20" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP20" t="n">
+      <c r="AR20" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -4282,79 +4406,85 @@
       <c r="AB21" t="n">
         <v>188.1568494634197</v>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AC21" t="n">
+        <v>181.4662503056698</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AI21" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP21" t="n">
+      <c r="AR21" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -4463,79 +4593,85 @@
       <c r="AB22" t="n">
         <v>126.0436432351906</v>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AC22" t="n">
+        <v>128.9573572930215</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP22" t="n">
+      <c r="AR22" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -4644,79 +4780,85 @@
       <c r="AB23" t="n">
         <v>117.366945943055</v>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AC23" t="n">
+        <v>125.9523719506703</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP23" t="n">
+      <c r="AR23" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -4825,79 +4967,85 @@
       <c r="AB24" t="n">
         <v>89.28045698807774</v>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AC24" t="n">
+        <v>109.233694435371</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AJ24" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP24" t="n">
+      <c r="AR24" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -5006,79 +5154,85 @@
       <c r="AB25" t="n">
         <v>100.776981498753</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AC25" t="n">
+        <v>86.4175908018732</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>聯寶</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>4.42</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AJ25" t="n">
         <v>36.59</v>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>35.21%</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>40.05</v>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>1511</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>磁性元件81.35%、無線充電產品18.65% (2024年)</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>聯寶-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP25" t="n">
+      <c r="AR25" t="n">
         <v>20.12</v>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>** 被動元件 - 電感器、濾波器、振盪器</t>
         </is>
@@ -5195,79 +5349,85 @@
       <c r="AB26" t="n">
         <v>186131.5523628383</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AC26" t="n">
+        <v>185010.107994131</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AJ26" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP26" t="n">
+      <c r="AR26" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -5384,79 +5544,85 @@
       <c r="AB27" t="n">
         <v>179198.0091407268</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AC27" t="n">
+        <v>151501.711449079</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AJ27" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK27" t="n">
+      <c r="AM27" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP27" t="n">
+      <c r="AR27" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -5573,79 +5739,85 @@
       <c r="AB28" t="n">
         <v>140522.049212926</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AC28" t="n">
+        <v>151843.1249908931</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AJ28" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK28" t="n">
+      <c r="AM28" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP28" t="n">
+      <c r="AR28" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -5762,79 +5934,85 @@
       <c r="AB29" t="n">
         <v>174599.395044771</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC29" t="n">
+        <v>201712.0966179272</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AJ29" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP29" t="n">
+      <c r="AR29" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -5951,79 +6129,85 @@
       <c r="AB30" t="n">
         <v>139776.8253860417</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC30" t="n">
+        <v>182833.0077611808</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP30" t="n">
+      <c r="AR30" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS30" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -6140,79 +6324,85 @@
       <c r="AB31" t="n">
         <v>122910.9962940664</v>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AC31" t="n">
+        <v>124260.7003320036</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AJ31" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AL31" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK31" t="n">
+      <c r="AM31" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP31" t="n">
+      <c r="AR31" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -6329,79 +6519,85 @@
       <c r="AB32" t="n">
         <v>75141.80134918247</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AC32" t="n">
+        <v>135385.8650930739</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AJ32" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AL32" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK32" t="n">
+      <c r="AM32" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP32" t="n">
+      <c r="AR32" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS32" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -6518,79 +6714,85 @@
       <c r="AB33" t="n">
         <v>77151.75973365741</v>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AC33" t="n">
+        <v>148571.1105733547</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ33" t="inlineStr">
+      <c r="AL33" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK33" t="n">
+      <c r="AM33" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP33" t="n">
+      <c r="AR33" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AU33" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -6707,79 +6909,85 @@
       <c r="AB34" t="n">
         <v>43248.56853122424</v>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AC34" t="n">
+        <v>131942.1165397918</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AI34" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AJ34" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI34" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ34" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK34" t="n">
+      <c r="AM34" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP34" t="n">
+      <c r="AR34" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -6896,79 +7104,85 @@
       <c r="AB35" t="n">
         <v>105890.9264054291</v>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AC35" t="n">
+        <v>156352.7153649722</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AI35" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AJ35" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK35" t="n">
+      <c r="AM35" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP35" t="n">
+      <c r="AR35" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -7085,79 +7299,85 @@
       <c r="AB36" t="n">
         <v>-20401.34125492733</v>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AC36" t="n">
+        <v>113676.7491706198</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AI36" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI36" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ36" t="inlineStr">
+      <c r="AL36" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK36" t="n">
+      <c r="AM36" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP36" t="n">
+      <c r="AR36" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -7274,79 +7494,85 @@
       <c r="AB37" t="n">
         <v>-95703.48952885678</v>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AC37" t="n">
+        <v>80722.78477604697</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="inlineStr">
         <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AI37" t="n">
         <v>918.29</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AJ37" t="n">
         <v>15.87</v>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AL37" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK37" t="n">
+      <c r="AM37" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP37" t="n">
+      <c r="AR37" t="n">
         <v>532.13</v>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AU37" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -7455,67 +7681,73 @@
       <c r="AB38" t="n">
         <v>-16.24807680927192</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AC38" t="n">
+        <v>64.87680633323437</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="n">
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="n">
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr">
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS38" t="inlineStr">
+      <c r="AU38" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -7624,67 +7856,73 @@
       <c r="AB39" t="n">
         <v>32.83291031876401</v>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AC39" t="n">
+        <v>70.24243731534378</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="n">
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="n">
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr">
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -7793,67 +8031,73 @@
       <c r="AB40" t="n">
         <v>36.55133376499413</v>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AC40" t="n">
+        <v>59.79966555090422</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AG40" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AH40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="n">
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="n">
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AN40" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AO40" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr">
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -7962,67 +8206,73 @@
       <c r="AB41" t="n">
         <v>38.60051813123756</v>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AC41" t="n">
+        <v>58.12056434688156</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AG41" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AH41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="n">
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="n">
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr">
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AU41" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -8131,67 +8381,73 @@
       <c r="AB42" t="n">
         <v>28.6879765755621</v>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AC42" t="n">
+        <v>75.16648189186454</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="n">
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="n">
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AN42" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr">
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS42" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -8300,67 +8556,73 @@
       <c r="AB43" t="n">
         <v>56.85068161420758</v>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AC43" t="n">
+        <v>71.33722730804723</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AH43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="n">
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="n">
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr">
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AU43" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -8469,67 +8731,73 @@
       <c r="AB44" t="n">
         <v>54.46099521676041</v>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AC44" t="n">
+        <v>79.15175298121956</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE44" t="inlineStr">
+      <c r="AG44" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AH44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="n">
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="n">
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AN44" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AO44" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr">
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AU44" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -8638,67 +8906,73 @@
       <c r="AB45" t="n">
         <v>53.31978994707313</v>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AC45" t="n">
+        <v>71.16178749862878</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="AG45" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AH45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="n">
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="n">
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AO45" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr">
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS45" t="inlineStr">
+      <c r="AU45" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -8807,67 +9081,73 @@
       <c r="AB46" t="n">
         <v>63.71812928829596</v>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AC46" t="n">
+        <v>70.57619995437555</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AH46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="n">
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="n">
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AO46" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr">
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS46" t="inlineStr">
+      <c r="AU46" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -8976,67 +9256,73 @@
       <c r="AB47" t="n">
         <v>66.91786009728644</v>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AC47" t="n">
+        <v>75.51158851461145</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AH47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="n">
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="n">
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AO47" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr">
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -9145,67 +9431,73 @@
       <c r="AB48" t="n">
         <v>66.88049042882386</v>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AC48" t="n">
+        <v>74.9933330370107</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="n">
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="n">
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL48" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AO48" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr">
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AU48" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -9314,67 +9606,73 @@
       <c r="AB49" t="n">
         <v>62.0966987850401</v>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AC49" t="n">
+        <v>64.08587988004847</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="inlineStr">
         <is>
           <t>松崗</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AG49" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AH49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="n">
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="n">
         <v>56.29</v>
       </c>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="n">
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="n">
         <v>83.45</v>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>勞務75.66%、租金和其他收入12.23%、融資租賃利息收入12.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>松崗-其他-上櫃</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>其他右下</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr">
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -9491,79 +9789,85 @@
       <c r="AB50" t="n">
         <v>3163.375254376249</v>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AC50" t="n">
+        <v>3382.377566150769</v>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AG50" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AH50" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AI50" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AJ50" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI50" t="inlineStr">
+      <c r="AK50" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ50" t="inlineStr">
+      <c r="AL50" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK50" t="n">
+      <c r="AM50" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AO50" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP50" t="n">
+      <c r="AR50" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -9680,79 +9984,85 @@
       <c r="AB51" t="n">
         <v>3124.800633640489</v>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AC51" t="n">
+        <v>3291.331037741418</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AH51" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AI51" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AJ51" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI51" t="inlineStr">
+      <c r="AK51" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ51" t="inlineStr">
+      <c r="AL51" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK51" t="n">
+      <c r="AM51" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AO51" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP51" t="n">
+      <c r="AR51" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS51" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -9869,79 +10179,85 @@
       <c r="AB52" t="n">
         <v>3152.548968691843</v>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AC52" t="n">
+        <v>3347.903224407778</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AG52" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AH52" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AI52" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AJ52" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI52" t="inlineStr">
+      <c r="AK52" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ52" t="inlineStr">
+      <c r="AL52" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK52" t="n">
+      <c r="AM52" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AN52" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AO52" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP52" t="n">
+      <c r="AR52" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -10058,79 +10374,85 @@
       <c r="AB53" t="n">
         <v>3007.07116643421</v>
       </c>
-      <c r="AC53" t="inlineStr">
+      <c r="AC53" t="n">
+        <v>3167.981534037091</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="AG53" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AH53" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AI53" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AJ53" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI53" t="inlineStr">
+      <c r="AK53" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ53" t="inlineStr">
+      <c r="AL53" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK53" t="n">
+      <c r="AM53" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL53" t="inlineStr">
+      <c r="AN53" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AO53" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP53" t="n">
+      <c r="AR53" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AU53" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -10247,79 +10569,85 @@
       <c r="AB54" t="n">
         <v>2632.865359261654</v>
       </c>
-      <c r="AC54" t="inlineStr">
+      <c r="AC54" t="n">
+        <v>2717.845838159332</v>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AH54" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AI54" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AJ54" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI54" t="inlineStr">
+      <c r="AK54" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ54" t="inlineStr">
+      <c r="AL54" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK54" t="n">
+      <c r="AM54" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL54" t="inlineStr">
+      <c r="AN54" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AO54" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP54" t="n">
+      <c r="AR54" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -10436,79 +10764,85 @@
       <c r="AB55" t="n">
         <v>2392.355533778372</v>
       </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AC55" t="n">
+        <v>2412.393624597777</v>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE55" t="inlineStr">
+      <c r="AG55" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AH55" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AI55" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AJ55" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI55" t="inlineStr">
+      <c r="AK55" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ55" t="inlineStr">
+      <c r="AL55" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK55" t="n">
+      <c r="AM55" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL55" t="inlineStr">
+      <c r="AN55" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AO55" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP55" t="n">
+      <c r="AR55" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -10625,79 +10959,85 @@
       <c r="AB56" t="n">
         <v>2272.102330442007</v>
       </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AC56" t="n">
+        <v>2331.559563897093</v>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AH56" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AI56" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AJ56" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI56" t="inlineStr">
+      <c r="AK56" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ56" t="inlineStr">
+      <c r="AL56" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK56" t="n">
+      <c r="AM56" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL56" t="inlineStr">
+      <c r="AN56" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AO56" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP56" t="n">
+      <c r="AR56" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -10814,79 +11154,85 @@
       <c r="AB57" t="n">
         <v>2328.635437332345</v>
       </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AC57" t="n">
+        <v>2437.368047710481</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE57" t="inlineStr">
+      <c r="AG57" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AH57" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AI57" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AJ57" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI57" t="inlineStr">
+      <c r="AK57" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ57" t="inlineStr">
+      <c r="AL57" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK57" t="n">
+      <c r="AM57" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL57" t="inlineStr">
+      <c r="AN57" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
+      <c r="AO57" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AQ57" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP57" t="n">
+      <c r="AR57" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS57" t="inlineStr">
+      <c r="AU57" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -11003,79 +11349,85 @@
       <c r="AB58" t="n">
         <v>2293.20496249245</v>
       </c>
-      <c r="AC58" t="inlineStr">
+      <c r="AC58" t="n">
+        <v>2339.056861215648</v>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD58" t="inlineStr">
+      <c r="AF58" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE58" t="inlineStr">
+      <c r="AG58" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF58" t="inlineStr">
+      <c r="AH58" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AI58" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AJ58" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI58" t="inlineStr">
+      <c r="AK58" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ58" t="inlineStr">
+      <c r="AL58" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK58" t="n">
+      <c r="AM58" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL58" t="inlineStr">
+      <c r="AN58" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM58" t="inlineStr">
+      <c r="AO58" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN58" t="inlineStr">
+      <c r="AP58" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO58" t="inlineStr">
+      <c r="AQ58" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP58" t="n">
+      <c r="AR58" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -11192,79 +11544,85 @@
       <c r="AB59" t="n">
         <v>2470.102831867532</v>
       </c>
-      <c r="AC59" t="inlineStr">
+      <c r="AC59" t="n">
+        <v>2589.168592424989</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD59" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE59" t="inlineStr">
+      <c r="AG59" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF59" t="inlineStr">
+      <c r="AH59" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AI59" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AJ59" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI59" t="inlineStr">
+      <c r="AK59" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ59" t="inlineStr">
+      <c r="AL59" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK59" t="n">
+      <c r="AM59" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL59" t="inlineStr">
+      <c r="AN59" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
+      <c r="AO59" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN59" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr">
+      <c r="AQ59" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP59" t="n">
+      <c r="AR59" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS59" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -11373,79 +11731,85 @@
       <c r="AB60" t="n">
         <v>1197.303219740096</v>
       </c>
-      <c r="AC60" t="inlineStr">
+      <c r="AC60" t="n">
+        <v>1422.535412564482</v>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD60" t="inlineStr">
+      <c r="AF60" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE60" t="inlineStr">
+      <c r="AG60" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF60" t="inlineStr">
+      <c r="AH60" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AI60" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AJ60" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI60" t="inlineStr">
+      <c r="AK60" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ60" t="inlineStr">
+      <c r="AL60" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK60" t="n">
+      <c r="AM60" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL60" t="inlineStr">
+      <c r="AN60" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
+      <c r="AO60" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN60" t="inlineStr">
+      <c r="AP60" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr">
+      <c r="AQ60" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP60" t="n">
+      <c r="AR60" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS60" t="inlineStr">
+      <c r="AU60" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -11554,79 +11918,85 @@
       <c r="AB61" t="n">
         <v>1033.67354614501</v>
       </c>
-      <c r="AC61" t="inlineStr">
+      <c r="AC61" t="n">
+        <v>819.8457171931802</v>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="inlineStr">
         <is>
           <t>高鋒</t>
         </is>
       </c>
-      <c r="AD61" t="inlineStr">
+      <c r="AF61" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AE61" t="inlineStr">
+      <c r="AG61" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF61" t="inlineStr">
+      <c r="AH61" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AI61" t="n">
         <v>2.88</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AJ61" t="n">
         <v>52.75</v>
       </c>
-      <c r="AI61" t="inlineStr">
+      <c r="AK61" t="inlineStr">
         <is>
           <t>22.20%</t>
         </is>
       </c>
-      <c r="AJ61" t="inlineStr">
+      <c r="AL61" t="inlineStr">
         <is>
           <t>0.08%</t>
         </is>
       </c>
-      <c r="AK61" t="n">
+      <c r="AM61" t="n">
         <v>41.9</v>
       </c>
-      <c r="AL61" t="inlineStr">
+      <c r="AN61" t="inlineStr">
         <is>
           <t>5811</t>
         </is>
       </c>
-      <c r="AM61" t="inlineStr">
+      <c r="AO61" t="inlineStr">
         <is>
           <t>龍門加工中心機60.36%、立式加工中心31.60%、其他6.30%、臥式加工機1.74% (2024年)</t>
         </is>
       </c>
-      <c r="AN61" t="inlineStr">
+      <c r="AP61" t="inlineStr">
         <is>
           <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr">
+      <c r="AQ61" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AP61" t="n">
+      <c r="AR61" t="n">
         <v>18.44</v>
       </c>
-      <c r="AQ61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS61" t="inlineStr">
+      <c r="AU61" t="inlineStr">
         <is>
           <t>** 電機機械 - 金屬加工用機械</t>
         </is>
@@ -11743,79 +12113,85 @@
       <c r="AB62" t="n">
         <v>1257.760311029093</v>
       </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AC62" t="n">
+        <v>1278.029733613424</v>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr">
+      <c r="AF62" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE62" t="inlineStr">
+      <c r="AG62" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF62" t="inlineStr">
+      <c r="AH62" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AI62" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AJ62" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AK62" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ62" t="inlineStr">
+      <c r="AL62" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK62" t="n">
+      <c r="AM62" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL62" t="inlineStr">
+      <c r="AN62" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
+      <c r="AO62" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN62" t="inlineStr">
+      <c r="AP62" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr">
+      <c r="AQ62" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP62" t="n">
+      <c r="AR62" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS62" t="inlineStr">
+      <c r="AU62" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -11932,79 +12308,85 @@
       <c r="AB63" t="n">
         <v>1093.95292403284</v>
       </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AC63" t="n">
+        <v>1130.215466183329</v>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE63" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF63" t="inlineStr">
+      <c r="AH63" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG63" t="n">
+      <c r="AI63" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AJ63" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI63" t="inlineStr">
+      <c r="AK63" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ63" t="inlineStr">
+      <c r="AL63" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK63" t="n">
+      <c r="AM63" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL63" t="inlineStr">
+      <c r="AN63" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
+      <c r="AO63" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN63" t="inlineStr">
+      <c r="AP63" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr">
+      <c r="AQ63" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP63" t="n">
+      <c r="AR63" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS63" t="inlineStr">
+      <c r="AU63" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -12121,79 +12503,85 @@
       <c r="AB64" t="n">
         <v>1152.296836756918</v>
       </c>
-      <c r="AC64" t="inlineStr">
+      <c r="AC64" t="n">
+        <v>1179.692332771558</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE64" t="inlineStr">
+      <c r="AG64" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF64" t="inlineStr">
+      <c r="AH64" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG64" t="n">
+      <c r="AI64" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AJ64" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI64" t="inlineStr">
+      <c r="AK64" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ64" t="inlineStr">
+      <c r="AL64" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK64" t="n">
+      <c r="AM64" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL64" t="inlineStr">
+      <c r="AN64" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
+      <c r="AO64" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN64" t="inlineStr">
+      <c r="AP64" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AQ64" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP64" t="n">
+      <c r="AR64" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS64" t="inlineStr">
+      <c r="AU64" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -12310,79 +12698,85 @@
       <c r="AB65" t="n">
         <v>1235.86204731758</v>
       </c>
-      <c r="AC65" t="inlineStr">
+      <c r="AC65" t="n">
+        <v>1266.086095018818</v>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE65" t="inlineStr">
+      <c r="AG65" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF65" t="inlineStr">
+      <c r="AH65" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG65" t="n">
+      <c r="AI65" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AJ65" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI65" t="inlineStr">
+      <c r="AK65" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ65" t="inlineStr">
+      <c r="AL65" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK65" t="n">
+      <c r="AM65" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL65" t="inlineStr">
+      <c r="AN65" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM65" t="inlineStr">
+      <c r="AO65" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN65" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr">
+      <c r="AQ65" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP65" t="n">
+      <c r="AR65" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS65" t="inlineStr">
+      <c r="AU65" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -12499,79 +12893,85 @@
       <c r="AB66" t="n">
         <v>1305.353974981499</v>
       </c>
-      <c r="AC66" t="inlineStr">
+      <c r="AC66" t="n">
+        <v>1331.009015747076</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE66" t="inlineStr">
+      <c r="AG66" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF66" t="inlineStr">
+      <c r="AH66" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG66" t="n">
+      <c r="AI66" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AJ66" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI66" t="inlineStr">
+      <c r="AK66" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ66" t="inlineStr">
+      <c r="AL66" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK66" t="n">
+      <c r="AM66" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL66" t="inlineStr">
+      <c r="AN66" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
+      <c r="AO66" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
+      <c r="AP66" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO66" t="inlineStr">
+      <c r="AQ66" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP66" t="n">
+      <c r="AR66" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -12688,79 +13088,85 @@
       <c r="AB67" t="n">
         <v>984.0416657845336</v>
       </c>
-      <c r="AC67" t="inlineStr">
+      <c r="AC67" t="n">
+        <v>988.2585694037771</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD67" t="inlineStr">
+      <c r="AF67" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE67" t="inlineStr">
+      <c r="AG67" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF67" t="inlineStr">
+      <c r="AH67" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG67" t="n">
+      <c r="AI67" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AJ67" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI67" t="inlineStr">
+      <c r="AK67" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ67" t="inlineStr">
+      <c r="AL67" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK67" t="n">
+      <c r="AM67" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL67" t="inlineStr">
+      <c r="AN67" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM67" t="inlineStr">
+      <c r="AO67" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN67" t="inlineStr">
+      <c r="AP67" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO67" t="inlineStr">
+      <c r="AQ67" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP67" t="n">
+      <c r="AR67" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -12877,79 +13283,85 @@
       <c r="AB68" t="n">
         <v>737.3289632179113</v>
       </c>
-      <c r="AC68" t="inlineStr">
+      <c r="AC68" t="n">
+        <v>714.3430548412996</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr">
+      <c r="AF68" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE68" t="inlineStr">
+      <c r="AG68" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF68" t="inlineStr">
+      <c r="AH68" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG68" t="n">
+      <c r="AI68" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AJ68" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI68" t="inlineStr">
+      <c r="AK68" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ68" t="inlineStr">
+      <c r="AL68" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK68" t="n">
+      <c r="AM68" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL68" t="inlineStr">
+      <c r="AN68" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
+      <c r="AO68" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN68" t="inlineStr">
+      <c r="AP68" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO68" t="inlineStr">
+      <c r="AQ68" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP68" t="n">
+      <c r="AR68" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS68" t="inlineStr">
+      <c r="AU68" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -13066,79 +13478,85 @@
       <c r="AB69" t="n">
         <v>813.4150232200042</v>
       </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AC69" t="n">
+        <v>797.3506129677207</v>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AF69" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE69" t="inlineStr">
+      <c r="AG69" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF69" t="inlineStr">
+      <c r="AH69" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG69" t="n">
+      <c r="AI69" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AJ69" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI69" t="inlineStr">
+      <c r="AK69" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ69" t="inlineStr">
+      <c r="AL69" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK69" t="n">
+      <c r="AM69" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL69" t="inlineStr">
+      <c r="AN69" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
+      <c r="AO69" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN69" t="inlineStr">
+      <c r="AP69" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO69" t="inlineStr">
+      <c r="AQ69" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP69" t="n">
+      <c r="AR69" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS69" t="inlineStr">
+      <c r="AU69" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -13255,79 +13673,85 @@
       <c r="AB70" t="n">
         <v>447.9709812030239</v>
       </c>
-      <c r="AC70" t="inlineStr">
+      <c r="AC70" t="n">
+        <v>415.4335085185113</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD70" t="inlineStr">
+      <c r="AF70" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE70" t="inlineStr">
+      <c r="AG70" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF70" t="inlineStr">
+      <c r="AH70" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG70" t="n">
+      <c r="AI70" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH70" t="n">
+      <c r="AJ70" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI70" t="inlineStr">
+      <c r="AK70" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ70" t="inlineStr">
+      <c r="AL70" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK70" t="n">
+      <c r="AM70" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL70" t="inlineStr">
+      <c r="AN70" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM70" t="inlineStr">
+      <c r="AO70" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN70" t="inlineStr">
+      <c r="AP70" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO70" t="inlineStr">
+      <c r="AQ70" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP70" t="n">
+      <c r="AR70" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS70" t="inlineStr">
+      <c r="AU70" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -13444,79 +13868,85 @@
       <c r="AB71" t="n">
         <v>278.2337147076177</v>
       </c>
-      <c r="AC71" t="inlineStr">
+      <c r="AC71" t="n">
+        <v>259.7229292919668</v>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE71" t="inlineStr">
+      <c r="AG71" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF71" t="inlineStr">
+      <c r="AH71" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG71" t="n">
+      <c r="AI71" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH71" t="n">
+      <c r="AJ71" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI71" t="inlineStr">
+      <c r="AK71" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ71" t="inlineStr">
+      <c r="AL71" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK71" t="n">
+      <c r="AM71" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL71" t="inlineStr">
+      <c r="AN71" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
+      <c r="AO71" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN71" t="inlineStr">
+      <c r="AP71" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO71" t="inlineStr">
+      <c r="AQ71" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP71" t="n">
+      <c r="AR71" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS71" t="inlineStr">
+      <c r="AU71" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -13625,79 +14055,85 @@
       <c r="AB72" t="n">
         <v>226.7134755589089</v>
       </c>
-      <c r="AC72" t="inlineStr">
+      <c r="AC72" t="n">
+        <v>136.1212694621968</v>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD72" t="inlineStr">
+      <c r="AF72" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE72" t="inlineStr">
+      <c r="AG72" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF72" t="inlineStr">
+      <c r="AH72" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG72" t="n">
+      <c r="AI72" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH72" t="n">
+      <c r="AJ72" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI72" t="inlineStr">
+      <c r="AK72" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ72" t="inlineStr">
+      <c r="AL72" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK72" t="n">
+      <c r="AM72" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL72" t="inlineStr">
+      <c r="AN72" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM72" t="inlineStr">
+      <c r="AO72" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN72" t="inlineStr">
+      <c r="AP72" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO72" t="inlineStr">
+      <c r="AQ72" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP72" t="n">
+      <c r="AR72" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS72" t="inlineStr">
+      <c r="AU72" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -13806,79 +14242,85 @@
       <c r="AB73" t="n">
         <v>283.9964788514111</v>
       </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AC73" t="n">
+        <v>119.8749348279281</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="inlineStr">
         <is>
           <t>山富</t>
         </is>
       </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AF73" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE73" t="inlineStr">
+      <c r="AG73" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF73" t="inlineStr">
+      <c r="AH73" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AG73" t="n">
+      <c r="AI73" t="n">
         <v>48.74</v>
       </c>
-      <c r="AH73" t="n">
+      <c r="AJ73" t="n">
         <v>14.85</v>
       </c>
-      <c r="AI73" t="inlineStr">
+      <c r="AK73" t="inlineStr">
         <is>
           <t>18.19%</t>
         </is>
       </c>
-      <c r="AJ73" t="inlineStr">
+      <c r="AL73" t="inlineStr">
         <is>
           <t>10.57%</t>
         </is>
       </c>
-      <c r="AK73" t="n">
+      <c r="AM73" t="n">
         <v>27.65</v>
       </c>
-      <c r="AL73" t="inlineStr">
+      <c r="AN73" t="inlineStr">
         <is>
           <t>3562</t>
         </is>
       </c>
-      <c r="AM73" t="inlineStr">
+      <c r="AO73" t="inlineStr">
         <is>
           <t>團體旅遊97.94%、代理服務1.38%、代理佣金0.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN73" t="inlineStr">
+      <c r="AP73" t="inlineStr">
         <is>
           <t>山富-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr">
+      <c r="AQ73" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP73" t="n">
+      <c r="AR73" t="n">
         <v>33.76</v>
       </c>
-      <c r="AQ73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS73" t="inlineStr">
+      <c r="AU73" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -13995,79 +14437,85 @@
       <c r="AB74" t="n">
         <v>67402.73194018177</v>
       </c>
-      <c r="AC74" t="inlineStr">
+      <c r="AC74" t="n">
+        <v>69396.14440298539</v>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD74" t="inlineStr">
+      <c r="AF74" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE74" t="inlineStr">
+      <c r="AG74" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF74" t="inlineStr">
+      <c r="AH74" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG74" t="n">
+      <c r="AI74" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH74" t="n">
+      <c r="AJ74" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI74" t="inlineStr">
+      <c r="AK74" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ74" t="inlineStr">
+      <c r="AL74" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK74" t="n">
+      <c r="AM74" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL74" t="inlineStr">
+      <c r="AN74" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
+      <c r="AO74" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN74" t="inlineStr">
+      <c r="AP74" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO74" t="inlineStr">
+      <c r="AQ74" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP74" t="n">
+      <c r="AR74" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS74" t="inlineStr">
+      <c r="AU74" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -14184,79 +14632,85 @@
       <c r="AB75" t="n">
         <v>63360.18596090135</v>
       </c>
-      <c r="AC75" t="inlineStr">
+      <c r="AC75" t="n">
+        <v>64609.16274801896</v>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr">
+      <c r="AF75" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE75" t="inlineStr">
+      <c r="AG75" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF75" t="inlineStr">
+      <c r="AH75" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG75" t="n">
+      <c r="AI75" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH75" t="n">
+      <c r="AJ75" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI75" t="inlineStr">
+      <c r="AK75" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ75" t="inlineStr">
+      <c r="AL75" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK75" t="n">
+      <c r="AM75" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL75" t="inlineStr">
+      <c r="AN75" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM75" t="inlineStr">
+      <c r="AO75" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN75" t="inlineStr">
+      <c r="AP75" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO75" t="inlineStr">
+      <c r="AQ75" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP75" t="n">
+      <c r="AR75" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS75" t="inlineStr">
+      <c r="AU75" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -14373,79 +14827,85 @@
       <c r="AB76" t="n">
         <v>66197.54323991186</v>
       </c>
-      <c r="AC76" t="inlineStr">
+      <c r="AC76" t="n">
+        <v>67781.41625844063</v>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD76" t="inlineStr">
+      <c r="AF76" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE76" t="inlineStr">
+      <c r="AG76" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF76" t="inlineStr">
+      <c r="AH76" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG76" t="n">
+      <c r="AI76" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH76" t="n">
+      <c r="AJ76" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI76" t="inlineStr">
+      <c r="AK76" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ76" t="inlineStr">
+      <c r="AL76" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK76" t="n">
+      <c r="AM76" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL76" t="inlineStr">
+      <c r="AN76" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
+      <c r="AO76" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN76" t="inlineStr">
+      <c r="AP76" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO76" t="inlineStr">
+      <c r="AQ76" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP76" t="n">
+      <c r="AR76" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS76" t="inlineStr">
+      <c r="AU76" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -14562,79 +15022,85 @@
       <c r="AB77" t="n">
         <v>59697.22718016306</v>
       </c>
-      <c r="AC77" t="inlineStr">
+      <c r="AC77" t="n">
+        <v>60050.11385501279</v>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD77" t="inlineStr">
+      <c r="AF77" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE77" t="inlineStr">
+      <c r="AG77" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF77" t="inlineStr">
+      <c r="AH77" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG77" t="n">
+      <c r="AI77" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH77" t="n">
+      <c r="AJ77" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI77" t="inlineStr">
+      <c r="AK77" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ77" t="inlineStr">
+      <c r="AL77" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK77" t="n">
+      <c r="AM77" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL77" t="inlineStr">
+      <c r="AN77" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM77" t="inlineStr">
+      <c r="AO77" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN77" t="inlineStr">
+      <c r="AP77" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO77" t="inlineStr">
+      <c r="AQ77" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP77" t="n">
+      <c r="AR77" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS77" t="inlineStr">
+      <c r="AU77" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -14751,79 +15217,85 @@
       <c r="AB78" t="n">
         <v>52341.30718658066</v>
       </c>
-      <c r="AC78" t="inlineStr">
+      <c r="AC78" t="n">
+        <v>52982.24232702878</v>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD78" t="inlineStr">
+      <c r="AF78" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE78" t="inlineStr">
+      <c r="AG78" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF78" t="inlineStr">
+      <c r="AH78" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG78" t="n">
+      <c r="AI78" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH78" t="n">
+      <c r="AJ78" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI78" t="inlineStr">
+      <c r="AK78" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ78" t="inlineStr">
+      <c r="AL78" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK78" t="n">
+      <c r="AM78" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL78" t="inlineStr">
+      <c r="AN78" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM78" t="inlineStr">
+      <c r="AO78" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN78" t="inlineStr">
+      <c r="AP78" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO78" t="inlineStr">
+      <c r="AQ78" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP78" t="n">
+      <c r="AR78" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS78" t="inlineStr">
+      <c r="AU78" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -14940,79 +15412,85 @@
       <c r="AB79" t="n">
         <v>48065.64385296425</v>
       </c>
-      <c r="AC79" t="inlineStr">
+      <c r="AC79" t="n">
+        <v>47954.10651862883</v>
+      </c>
+      <c r="AD79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE79" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD79" t="inlineStr">
+      <c r="AF79" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE79" t="inlineStr">
+      <c r="AG79" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF79" t="inlineStr">
+      <c r="AH79" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG79" t="n">
+      <c r="AI79" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH79" t="n">
+      <c r="AJ79" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI79" t="inlineStr">
+      <c r="AK79" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ79" t="inlineStr">
+      <c r="AL79" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK79" t="n">
+      <c r="AM79" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL79" t="inlineStr">
+      <c r="AN79" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM79" t="inlineStr">
+      <c r="AO79" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN79" t="inlineStr">
+      <c r="AP79" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO79" t="inlineStr">
+      <c r="AQ79" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP79" t="n">
+      <c r="AR79" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS79" t="inlineStr">
+      <c r="AU79" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -15129,79 +15607,85 @@
       <c r="AB80" t="n">
         <v>47100.13764311098</v>
       </c>
-      <c r="AC80" t="inlineStr">
+      <c r="AC80" t="n">
+        <v>46060.4606794157</v>
+      </c>
+      <c r="AD80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE80" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD80" t="inlineStr">
+      <c r="AF80" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE80" t="inlineStr">
+      <c r="AG80" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF80" t="inlineStr">
+      <c r="AH80" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG80" t="n">
+      <c r="AI80" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH80" t="n">
+      <c r="AJ80" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI80" t="inlineStr">
+      <c r="AK80" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ80" t="inlineStr">
+      <c r="AL80" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK80" t="n">
+      <c r="AM80" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL80" t="inlineStr">
+      <c r="AN80" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM80" t="inlineStr">
+      <c r="AO80" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN80" t="inlineStr">
+      <c r="AP80" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO80" t="inlineStr">
+      <c r="AQ80" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP80" t="n">
+      <c r="AR80" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -15318,79 +15802,85 @@
       <c r="AB81" t="n">
         <v>48225.8467318097</v>
       </c>
-      <c r="AC81" t="inlineStr">
+      <c r="AC81" t="n">
+        <v>47718.20192547075</v>
+      </c>
+      <c r="AD81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE81" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AF81" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE81" t="inlineStr">
+      <c r="AG81" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF81" t="inlineStr">
+      <c r="AH81" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG81" t="n">
+      <c r="AI81" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH81" t="n">
+      <c r="AJ81" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI81" t="inlineStr">
+      <c r="AK81" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ81" t="inlineStr">
+      <c r="AL81" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK81" t="n">
+      <c r="AM81" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL81" t="inlineStr">
+      <c r="AN81" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM81" t="inlineStr">
+      <c r="AO81" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN81" t="inlineStr">
+      <c r="AP81" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO81" t="inlineStr">
+      <c r="AQ81" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP81" t="n">
+      <c r="AR81" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS81" t="inlineStr">
+      <c r="AU81" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -15507,79 +15997,85 @@
       <c r="AB82" t="n">
         <v>43551.02036692137</v>
       </c>
-      <c r="AC82" t="inlineStr">
+      <c r="AC82" t="n">
+        <v>44173.78030008299</v>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD82" t="inlineStr">
+      <c r="AF82" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE82" t="inlineStr">
+      <c r="AG82" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF82" t="inlineStr">
+      <c r="AH82" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG82" t="n">
+      <c r="AI82" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH82" t="n">
+      <c r="AJ82" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI82" t="inlineStr">
+      <c r="AK82" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ82" t="inlineStr">
+      <c r="AL82" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK82" t="n">
+      <c r="AM82" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL82" t="inlineStr">
+      <c r="AN82" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM82" t="inlineStr">
+      <c r="AO82" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN82" t="inlineStr">
+      <c r="AP82" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO82" t="inlineStr">
+      <c r="AQ82" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP82" t="n">
+      <c r="AR82" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ82" t="inlineStr">
+      <c r="AS82" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS82" t="inlineStr">
+      <c r="AU82" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -15696,79 +16192,85 @@
       <c r="AB83" t="n">
         <v>47136.38640159001</v>
       </c>
-      <c r="AC83" t="inlineStr">
+      <c r="AC83" t="n">
+        <v>48962.99981618773</v>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD83" t="inlineStr">
+      <c r="AF83" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE83" t="inlineStr">
+      <c r="AG83" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF83" t="inlineStr">
+      <c r="AH83" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG83" t="n">
+      <c r="AI83" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH83" t="n">
+      <c r="AJ83" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI83" t="inlineStr">
+      <c r="AK83" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ83" t="inlineStr">
+      <c r="AL83" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK83" t="n">
+      <c r="AM83" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL83" t="inlineStr">
+      <c r="AN83" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM83" t="inlineStr">
+      <c r="AO83" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN83" t="inlineStr">
+      <c r="AP83" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO83" t="inlineStr">
+      <c r="AQ83" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP83" t="n">
+      <c r="AR83" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS83" t="inlineStr">
+      <c r="AU83" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -15885,79 +16387,85 @@
       <c r="AB84" t="n">
         <v>16513.52733367405</v>
       </c>
-      <c r="AC84" t="inlineStr">
+      <c r="AC84" t="n">
+        <v>19089.77545703459</v>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD84" t="inlineStr">
+      <c r="AF84" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE84" t="inlineStr">
+      <c r="AG84" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF84" t="inlineStr">
+      <c r="AH84" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG84" t="n">
+      <c r="AI84" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH84" t="n">
+      <c r="AJ84" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI84" t="inlineStr">
+      <c r="AK84" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ84" t="inlineStr">
+      <c r="AL84" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK84" t="n">
+      <c r="AM84" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL84" t="inlineStr">
+      <c r="AN84" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM84" t="inlineStr">
+      <c r="AO84" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN84" t="inlineStr">
+      <c r="AP84" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO84" t="inlineStr">
+      <c r="AQ84" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP84" t="n">
+      <c r="AR84" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ84" t="inlineStr">
+      <c r="AS84" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS84" t="inlineStr">
+      <c r="AU84" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
@@ -16066,79 +16574,85 @@
       <c r="AB85" t="n">
         <v>12642.41851862214</v>
       </c>
-      <c r="AC85" t="inlineStr">
+      <c r="AC85" t="n">
+        <v>6914.220129559081</v>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="inlineStr">
         <is>
           <t>昆盈</t>
         </is>
       </c>
-      <c r="AD85" t="inlineStr">
+      <c r="AF85" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE85" t="inlineStr">
+      <c r="AG85" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF85" t="inlineStr">
+      <c r="AH85" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AG85" t="n">
+      <c r="AI85" t="n">
         <v>1.06</v>
       </c>
-      <c r="AH85" t="n">
+      <c r="AJ85" t="n">
         <v>73.66</v>
       </c>
-      <c r="AI85" t="inlineStr">
+      <c r="AK85" t="inlineStr">
         <is>
           <t>38.84%</t>
         </is>
       </c>
-      <c r="AJ85" t="inlineStr">
+      <c r="AL85" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK85" t="n">
+      <c r="AM85" t="n">
         <v>44.42</v>
       </c>
-      <c r="AL85" t="inlineStr">
+      <c r="AN85" t="inlineStr">
         <is>
           <t>9138</t>
         </is>
       </c>
-      <c r="AM85" t="inlineStr">
+      <c r="AO85" t="inlineStr">
         <is>
           <t>電子產品99.80%、投資0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN85" t="inlineStr">
+      <c r="AP85" t="inlineStr">
         <is>
           <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO85" t="inlineStr">
+      <c r="AQ85" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP85" t="n">
+      <c r="AR85" t="n">
         <v>14.24</v>
       </c>
-      <c r="AQ85" t="inlineStr">
+      <c r="AS85" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS85" t="inlineStr">
+      <c r="AU85" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 其他電腦及週邊設備</t>
         </is>
